--- a/datf_core/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx
+++ b/datf_core/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C361F73-F5BD-42EA-8675-C496F035A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11814012-E5F4-4959-B33D-71D4095A0421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>/app/test/data/source</t>
-  </si>
-  <si>
     <t>testcase23_parquet_snowflake_mismatch</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>SAMPLE_SRC_PATIENTS</t>
+  </si>
+  <si>
+    <t>test/data/source</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
